--- a/2024_07_12/attendance/src/main/resources/output.xlsx
+++ b/2024_07_12/attendance/src/main/resources/output.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="59">
   <si>
     <t>Danh sách học viên đi học</t>
   </si>
